--- a/webService/src/main/resources/static/ExcelTemplate/hospitalList.xlsx
+++ b/webService/src/main/resources/static/ExcelTemplate/hospitalList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
   <si>
     <t>번호</t>
   </si>
@@ -38,7 +38,7 @@
     <t>유레카내과의원</t>
   </si>
   <si>
-    <t>내과,산부인과</t>
+    <t>산부인과</t>
   </si>
   <si>
     <t>09:00-18:00</t>
@@ -167,7 +167,7 @@
     <t>맹해성이비인후과의원</t>
   </si>
   <si>
-    <t>이비인후과,피부과</t>
+    <t>정형외과,이비인후과,피부과</t>
   </si>
   <si>
     <t>031-012-3456</t>
@@ -191,7 +191,7 @@
     <t>초이스병원</t>
   </si>
   <si>
-    <t>성형외과,정형외과,내과</t>
+    <t>성형외과,내과</t>
   </si>
   <si>
     <t>031-216-8275</t>
@@ -411,18 +411,6 @@
   </si>
   <si>
     <t>경기 수원시 팔달구 중부대로 44 건우까사미타워 4층</t>
-  </si>
-  <si>
-    <t>수원아이편한병원</t>
-  </si>
-  <si>
-    <t>소아청소년과</t>
-  </si>
-  <si>
-    <t>031-546-0019</t>
-  </si>
-  <si>
-    <t>경기 수원시 팔달구 권광로 138 선경센트럴파크 4층</t>
   </si>
 </sst>
 </file>
@@ -467,18 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.62109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.80859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.53515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.89453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.5390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.7578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="64.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1081,26 +1069,6 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
